--- a/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -863,7 +863,9 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
@@ -912,7 +914,9 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
@@ -799,7 +799,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -814,40 +814,40 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -864,7 +864,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -915,7 +915,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -1647,43 +1647,43 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2492,9 +2492,7 @@
       <c r="K3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="L3" s="9"/>
       <c r="M3" s="9" t="n">
         <v>1</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
@@ -863,9 +863,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="s">
         <v>27</v>
       </c>
@@ -914,9 +912,7 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -1629,7 +1625,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1653,37 +1649,37 @@
         <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
@@ -816,11 +816,9 @@
       <c r="L5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>0.5</v>
@@ -1625,7 +1623,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1649,37 +1647,37 @@
         <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.375</v>
+        <v>0.33335</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.375</v>
+        <v>0.33335</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.3334</v>
       </c>
     </row>
   </sheetData>
@@ -2489,9 +2487,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="9"/>
-      <c r="M3" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="9" t="n">
         <v>1</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Autonomous Mobile Solutions Division.xlsx
@@ -820,9 +820,7 @@
       <c r="N5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O5" s="1"/>
       <c r="P5" s="1" t="n">
         <v>0.5</v>
       </c>
@@ -1623,7 +1621,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1653,31 +1651,31 @@
         <v>1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.3334</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2491,9 +2489,7 @@
       <c r="N3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3" s="9"/>
       <c r="P3" s="9" t="n">
         <v>1</v>
       </c>
